--- a/data/excel/Historical_collections_fool.xlsx
+++ b/data/excel/Historical_collections_fool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\daten.uni-bamberg.de\eng-ling\Deceive-type verbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\R_project_verbs_of_deceiving\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6774" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="2140">
   <si>
     <t>y</t>
   </si>
@@ -6380,9 +6380,6 @@
     <t>to the fancy</t>
   </si>
   <si>
-    <t>EPD</t>
-  </si>
-  <si>
     <t>by the fact</t>
   </si>
   <si>
@@ -6444,9 +6441,6 @@
   </si>
   <si>
     <t>TAL</t>
-  </si>
-  <si>
-    <t>Drama</t>
   </si>
   <si>
     <t>nominal</t>
@@ -6797,12 +6791,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB424"/>
+  <dimension ref="A1:AB423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A377" sqref="A377:XFD424"/>
+      <selection pane="bottomLeft" activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,7 +6908,7 @@
         <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E2">
         <v>2003</v>
@@ -6929,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
@@ -6997,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -7051,7 +7045,7 @@
         <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E4">
         <v>1997</v>
@@ -7066,7 +7060,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -7135,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -7203,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -7271,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
@@ -7339,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J8" t="s">
         <v>1</v>
@@ -7407,7 +7401,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
@@ -7475,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
@@ -7543,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J11" t="s">
         <v>1</v>
@@ -7611,7 +7605,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
@@ -7679,7 +7673,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J13" t="s">
         <v>1</v>
@@ -7747,7 +7741,7 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -7815,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
@@ -7884,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J16" t="s">
         <v>0</v>
@@ -7952,7 +7946,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J17" t="s">
         <v>1</v>
@@ -8020,7 +8014,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -8088,13 +8082,13 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J19" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>718</v>
@@ -8157,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J20" t="s">
         <v>1</v>
@@ -8226,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J21" t="s">
         <v>1</v>
@@ -8294,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J22" t="s">
         <v>1</v>
@@ -8362,7 +8356,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -8431,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J24" t="s">
         <v>0</v>
@@ -8500,7 +8494,7 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J25" t="s">
         <v>1</v>
@@ -8568,7 +8562,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J26" t="s">
         <v>0</v>
@@ -8637,7 +8631,7 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J27" t="s">
         <v>1</v>
@@ -8705,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J28" t="s">
         <v>0</v>
@@ -8773,7 +8767,7 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -8842,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J30" t="s">
         <v>0</v>
@@ -9032,7 +9026,7 @@
         <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E33">
         <v>1978</v>
@@ -9047,7 +9041,7 @@
         <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J33" t="s">
         <v>0</v>
@@ -9116,7 +9110,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J34" t="s">
         <v>0</v>
@@ -9185,7 +9179,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J35" t="s">
         <v>1</v>
@@ -9254,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J36" t="s">
         <v>1</v>
@@ -9319,10 +9313,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="I37" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J37" t="s">
         <v>1</v>
@@ -9390,7 +9384,7 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
@@ -9650,7 +9644,7 @@
         <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E42">
         <v>2008</v>
@@ -9801,7 +9795,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J44" t="s">
         <v>1</v>
@@ -9869,7 +9863,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J45" t="s">
         <v>1</v>
@@ -9937,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J46" t="s">
         <v>1</v>
@@ -10005,7 +9999,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J47" t="s">
         <v>0</v>
@@ -10074,7 +10068,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J48" t="s">
         <v>0</v>
@@ -10142,7 +10136,7 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J49" t="s">
         <v>0</v>
@@ -10210,7 +10204,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J50" t="s">
         <v>1</v>
@@ -10278,7 +10272,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J51" t="s">
         <v>0</v>
@@ -10346,13 +10340,13 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J52" t="s">
         <v>0</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>332</v>
@@ -10415,7 +10409,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J53" t="s">
         <v>0</v>
@@ -10483,7 +10477,7 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J54" t="s">
         <v>1</v>
@@ -10548,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="I55" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J55" t="s">
         <v>1</v>
@@ -10619,7 +10613,7 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J56" t="s">
         <v>1</v>
@@ -10687,7 +10681,7 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J57" t="s">
         <v>0</v>
@@ -10755,7 +10749,7 @@
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J58" t="s">
         <v>1</v>
@@ -10823,7 +10817,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J59" t="s">
         <v>1</v>
@@ -10891,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J60" t="s">
         <v>1</v>
@@ -10903,7 +10897,7 @@
         <v>241</v>
       </c>
       <c r="N60" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="S60" t="s">
         <v>4</v>
@@ -10959,7 +10953,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J61" t="s">
         <v>1</v>
@@ -11028,7 +11022,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J62" t="s">
         <v>1</v>
@@ -11096,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J63" t="s">
         <v>1</v>
@@ -11165,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J64" t="s">
         <v>0</v>
@@ -11233,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J65" t="s">
         <v>1</v>
@@ -11437,7 +11431,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J68" t="s">
         <v>1</v>
@@ -11505,7 +11499,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J69" t="s">
         <v>1</v>
@@ -11573,7 +11567,7 @@
         <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J70" t="s">
         <v>1</v>
@@ -11641,7 +11635,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J71" t="s">
         <v>0</v>
@@ -11710,7 +11704,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J72" t="s">
         <v>1</v>
@@ -11778,7 +11772,7 @@
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J73" t="s">
         <v>0</v>
@@ -11846,7 +11840,7 @@
         <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J74" t="s">
         <v>1</v>
@@ -11914,7 +11908,7 @@
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J75" t="s">
         <v>0</v>
@@ -11983,7 +11977,7 @@
         <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J76" t="s">
         <v>0</v>
@@ -12052,7 +12046,7 @@
         <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J77" t="s">
         <v>1</v>
@@ -12117,10 +12111,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="I78" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J78" t="s">
         <v>0</v>
@@ -12189,7 +12183,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J79" t="s">
         <v>1</v>
@@ -12242,7 +12236,7 @@
         <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E80">
         <v>1987</v>
@@ -12257,7 +12251,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J80" t="s">
         <v>0</v>
@@ -12326,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J81" t="s">
         <v>0</v>
@@ -12394,7 +12388,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J82" t="s">
         <v>0</v>
@@ -12463,7 +12457,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J83" t="s">
         <v>0</v>
@@ -12531,7 +12525,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J84" t="s">
         <v>0</v>
@@ -12599,7 +12593,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J85" t="s">
         <v>1</v>
@@ -12668,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J86" t="s">
         <v>1</v>
@@ -12939,10 +12933,10 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I90" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J90" t="s">
         <v>1</v>
@@ -13011,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J91" t="s">
         <v>0</v>
@@ -13079,7 +13073,7 @@
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J92" t="s">
         <v>1</v>
@@ -13147,7 +13141,7 @@
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J93" t="s">
         <v>0</v>
@@ -13215,7 +13209,7 @@
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J94" t="s">
         <v>1</v>
@@ -13283,7 +13277,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J95" t="s">
         <v>1</v>
@@ -13351,7 +13345,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J96" t="s">
         <v>1</v>
@@ -13419,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J97" t="s">
         <v>1</v>
@@ -13487,7 +13481,7 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J98" t="s">
         <v>1</v>
@@ -13556,7 +13550,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J99" t="s">
         <v>1</v>
@@ -13624,7 +13618,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J100" t="s">
         <v>1</v>
@@ -13692,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J101" t="s">
         <v>1</v>
@@ -13760,7 +13754,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J102" t="s">
         <v>1</v>
@@ -13828,7 +13822,7 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J103" t="s">
         <v>0</v>
@@ -13896,7 +13890,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J104" t="s">
         <v>1</v>
@@ -13964,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J105" t="s">
         <v>0</v>
@@ -14100,7 +14094,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J107" t="s">
         <v>1</v>
@@ -14168,7 +14162,7 @@
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J108" t="s">
         <v>0</v>
@@ -14236,7 +14230,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J109" t="s">
         <v>1</v>
@@ -14304,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J110" t="s">
         <v>1</v>
@@ -14372,7 +14366,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J111" t="s">
         <v>1</v>
@@ -14440,7 +14434,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J112" t="s">
         <v>1</v>
@@ -14508,7 +14502,7 @@
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J113" t="s">
         <v>1</v>
@@ -14576,7 +14570,7 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J114" t="s">
         <v>1</v>
@@ -14644,7 +14638,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J115" t="s">
         <v>1</v>
@@ -14712,7 +14706,7 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J116" t="s">
         <v>0</v>
@@ -14780,7 +14774,7 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J117" t="s">
         <v>1</v>
@@ -14833,7 +14827,7 @@
         <v>92</v>
       </c>
       <c r="D118" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E118">
         <v>1915</v>
@@ -14848,7 +14842,7 @@
         <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J118" t="s">
         <v>0</v>
@@ -14917,7 +14911,7 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J119" t="s">
         <v>1</v>
@@ -14985,7 +14979,7 @@
         <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J120" t="s">
         <v>0</v>
@@ -15050,10 +15044,10 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="I121" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J121" t="s">
         <v>0</v>
@@ -15122,7 +15116,7 @@
         <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J122" t="s">
         <v>0</v>
@@ -15191,7 +15185,7 @@
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J123" t="s">
         <v>0</v>
@@ -15259,7 +15253,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J124" t="s">
         <v>0</v>
@@ -15327,7 +15321,7 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J125" t="s">
         <v>0</v>
@@ -15395,7 +15389,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J126" t="s">
         <v>1</v>
@@ -15463,7 +15457,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J127" t="s">
         <v>1</v>
@@ -15600,7 +15594,7 @@
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J129" t="s">
         <v>1</v>
@@ -15669,7 +15663,7 @@
         <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J130" t="s">
         <v>1</v>
@@ -15737,7 +15731,7 @@
         <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J131" t="s">
         <v>1</v>
@@ -15805,7 +15799,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J132" t="s">
         <v>0</v>
@@ -15873,7 +15867,7 @@
         <v>3</v>
       </c>
       <c r="I133" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J133" t="s">
         <v>1</v>
@@ -15941,7 +15935,7 @@
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J134" t="s">
         <v>1</v>
@@ -16009,7 +16003,7 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J135" t="s">
         <v>0</v>
@@ -16077,7 +16071,7 @@
         <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J136" t="s">
         <v>0</v>
@@ -16146,7 +16140,7 @@
         <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J137" t="s">
         <v>1</v>
@@ -16214,7 +16208,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J138" t="s">
         <v>1</v>
@@ -16283,7 +16277,7 @@
         <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J139" t="s">
         <v>0</v>
@@ -16352,7 +16346,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J140" t="s">
         <v>1</v>
@@ -16420,7 +16414,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J141" t="s">
         <v>1</v>
@@ -16488,7 +16482,7 @@
         <v>123</v>
       </c>
       <c r="I142" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J142" t="s">
         <v>0</v>
@@ -16557,7 +16551,7 @@
         <v>3</v>
       </c>
       <c r="I143" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J143" t="s">
         <v>0</v>
@@ -16625,7 +16619,7 @@
         <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J144" t="s">
         <v>0</v>
@@ -16690,10 +16684,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="I145" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J145" t="s">
         <v>0</v>
@@ -16747,7 +16741,7 @@
         <v>81</v>
       </c>
       <c r="D146" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E146">
         <v>2000</v>
@@ -16762,7 +16756,7 @@
         <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J146" t="s">
         <v>0</v>
@@ -16830,7 +16824,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J147" t="s">
         <v>1</v>
@@ -16898,7 +16892,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J148" t="s">
         <v>0</v>
@@ -16951,7 +16945,7 @@
         <v>81</v>
       </c>
       <c r="D149" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E149">
         <v>1999</v>
@@ -16966,7 +16960,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J149" t="s">
         <v>0</v>
@@ -17034,7 +17028,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J150" t="s">
         <v>0</v>
@@ -17239,7 +17233,7 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J153" t="s">
         <v>0</v>
@@ -17307,7 +17301,7 @@
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J154" t="s">
         <v>1</v>
@@ -17375,7 +17369,7 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J155" t="s">
         <v>0</v>
@@ -17443,7 +17437,7 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J156" t="s">
         <v>1</v>
@@ -17511,7 +17505,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J157" t="s">
         <v>1</v>
@@ -17579,7 +17573,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J158" t="s">
         <v>1</v>
@@ -17647,7 +17641,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J159" t="s">
         <v>1</v>
@@ -17715,7 +17709,7 @@
         <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J160" t="s">
         <v>1</v>
@@ -17783,7 +17777,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J161" t="s">
         <v>0</v>
@@ -17851,7 +17845,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J162" t="s">
         <v>0</v>
@@ -17919,7 +17913,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J163" t="s">
         <v>0</v>
@@ -17987,7 +17981,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J164" t="s">
         <v>0</v>
@@ -18055,7 +18049,7 @@
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J165" t="s">
         <v>1</v>
@@ -18108,7 +18102,7 @@
         <v>81</v>
       </c>
       <c r="D166" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E166">
         <v>2004</v>
@@ -18123,7 +18117,7 @@
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J166" t="s">
         <v>1</v>
@@ -18191,7 +18185,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J167" t="s">
         <v>1</v>
@@ -18259,7 +18253,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J168" t="s">
         <v>1</v>
@@ -18327,7 +18321,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J169" t="s">
         <v>1</v>
@@ -18395,7 +18389,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J170" t="s">
         <v>1</v>
@@ -18463,7 +18457,7 @@
         <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J171" t="s">
         <v>1</v>
@@ -18600,7 +18594,7 @@
         <v>12</v>
       </c>
       <c r="I173" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J173" t="s">
         <v>0</v>
@@ -18668,7 +18662,7 @@
         <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J174" t="s">
         <v>1</v>
@@ -18736,7 +18730,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J175" t="s">
         <v>0</v>
@@ -18805,7 +18799,7 @@
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J176" t="s">
         <v>0</v>
@@ -18873,7 +18867,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J177" t="s">
         <v>1</v>
@@ -18942,7 +18936,7 @@
         <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J178" t="s">
         <v>1</v>
@@ -19010,7 +19004,7 @@
         <v>3</v>
       </c>
       <c r="I179" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J179" t="s">
         <v>1</v>
@@ -19022,7 +19016,7 @@
         <v>232</v>
       </c>
       <c r="N179" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="S179" t="s">
         <v>233</v>
@@ -19492,7 +19486,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J186" t="s">
         <v>1</v>
@@ -19628,7 +19622,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J188" t="s">
         <v>1</v>
@@ -19696,7 +19690,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J189" t="s">
         <v>1</v>
@@ -19761,10 +19755,10 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="I190" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J190" t="s">
         <v>0</v>
@@ -19830,10 +19824,10 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I191" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J191" t="s">
         <v>1</v>
@@ -19898,10 +19892,10 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I192" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J192" t="s">
         <v>0</v>
@@ -19967,10 +19961,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I193" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J193" t="s">
         <v>0</v>
@@ -20023,7 +20017,7 @@
         <v>81</v>
       </c>
       <c r="D194" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E194">
         <v>2016</v>
@@ -20035,10 +20029,10 @@
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I194" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J194" t="s">
         <v>0</v>
@@ -20103,10 +20097,10 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I195" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J195" t="s">
         <v>0</v>
@@ -20171,10 +20165,10 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I196" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J196" t="s">
         <v>0</v>
@@ -20242,7 +20236,7 @@
         <v>12</v>
       </c>
       <c r="I197" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J197" t="s">
         <v>1</v>
@@ -20310,7 +20304,7 @@
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J198" t="s">
         <v>1</v>
@@ -20378,7 +20372,7 @@
         <v>3</v>
       </c>
       <c r="I199" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J199" t="s">
         <v>0</v>
@@ -20443,10 +20437,10 @@
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="I200" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J200" t="s">
         <v>1</v>
@@ -20514,7 +20508,7 @@
         <v>3</v>
       </c>
       <c r="I201" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J201" t="s">
         <v>0</v>
@@ -20582,7 +20576,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J202" t="s">
         <v>1</v>
@@ -20651,7 +20645,7 @@
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J203" t="s">
         <v>1</v>
@@ -20719,7 +20713,7 @@
         <v>12</v>
       </c>
       <c r="I204" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J204" t="s">
         <v>0</v>
@@ -20787,7 +20781,7 @@
         <v>3</v>
       </c>
       <c r="I205" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J205" t="s">
         <v>1</v>
@@ -20855,7 +20849,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J206" t="s">
         <v>1</v>
@@ -20991,7 +20985,7 @@
         <v>12</v>
       </c>
       <c r="I208" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J208" t="s">
         <v>1</v>
@@ -21060,7 +21054,7 @@
         <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J209" t="s">
         <v>0</v>
@@ -21128,7 +21122,7 @@
         <v>12</v>
       </c>
       <c r="I210" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J210" t="s">
         <v>0</v>
@@ -21196,7 +21190,7 @@
         <v>12</v>
       </c>
       <c r="I211" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J211" t="s">
         <v>0</v>
@@ -21401,7 +21395,7 @@
         <v>123</v>
       </c>
       <c r="I214" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J214" t="s">
         <v>1</v>
@@ -21470,7 +21464,7 @@
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J215" t="s">
         <v>1</v>
@@ -21539,7 +21533,7 @@
         <v>12</v>
       </c>
       <c r="I216" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J216" t="s">
         <v>1</v>
@@ -21607,7 +21601,7 @@
         <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J217" t="s">
         <v>1</v>
@@ -21675,7 +21669,7 @@
         <v>12</v>
       </c>
       <c r="I218" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J218" t="s">
         <v>0</v>
@@ -21743,7 +21737,7 @@
         <v>12</v>
       </c>
       <c r="I219" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J219" t="s">
         <v>0</v>
@@ -21811,7 +21805,7 @@
         <v>12</v>
       </c>
       <c r="I220" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J220" t="s">
         <v>0</v>
@@ -21879,7 +21873,7 @@
         <v>12</v>
       </c>
       <c r="I221" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J221" t="s">
         <v>1</v>
@@ -21947,7 +21941,7 @@
         <v>12</v>
       </c>
       <c r="I222" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J222" t="s">
         <v>1</v>
@@ -22015,7 +22009,7 @@
         <v>12</v>
       </c>
       <c r="I223" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J223" t="s">
         <v>1</v>
@@ -22083,7 +22077,7 @@
         <v>12</v>
       </c>
       <c r="I224" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J224" t="s">
         <v>1</v>
@@ -22136,7 +22130,7 @@
         <v>92</v>
       </c>
       <c r="D225" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E225">
         <v>2002</v>
@@ -22151,7 +22145,7 @@
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J225" t="s">
         <v>1</v>
@@ -22220,7 +22214,7 @@
         <v>3</v>
       </c>
       <c r="I226" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J226" t="s">
         <v>1</v>
@@ -22288,7 +22282,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J227" t="s">
         <v>1</v>
@@ -22356,7 +22350,7 @@
         <v>3</v>
       </c>
       <c r="I228" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J228" t="s">
         <v>1</v>
@@ -22424,7 +22418,7 @@
         <v>3</v>
       </c>
       <c r="I229" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J229" t="s">
         <v>1</v>
@@ -22493,7 +22487,7 @@
         <v>3</v>
       </c>
       <c r="I230" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J230" t="s">
         <v>1</v>
@@ -22561,7 +22555,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J231" t="s">
         <v>1</v>
@@ -22630,7 +22624,7 @@
         <v>3</v>
       </c>
       <c r="I232" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J232" t="s">
         <v>1</v>
@@ -22699,7 +22693,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J233" t="s">
         <v>1</v>
@@ -22767,7 +22761,7 @@
         <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J234" t="s">
         <v>1</v>
@@ -22835,7 +22829,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J235" t="s">
         <v>1</v>
@@ -22903,13 +22897,13 @@
         <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J236" t="s">
         <v>1</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="M236" s="5" t="s">
         <v>355</v>
@@ -22971,7 +22965,7 @@
         <v>3</v>
       </c>
       <c r="I237" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J237" t="s">
         <v>1</v>
@@ -23039,7 +23033,7 @@
         <v>3</v>
       </c>
       <c r="I238" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J238" t="s">
         <v>1</v>
@@ -23107,7 +23101,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J239" t="s">
         <v>0</v>
@@ -23175,7 +23169,7 @@
         <v>3</v>
       </c>
       <c r="I240" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J240" t="s">
         <v>0</v>
@@ -23243,7 +23237,7 @@
         <v>3</v>
       </c>
       <c r="I241" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J241" t="s">
         <v>0</v>
@@ -23311,7 +23305,7 @@
         <v>3</v>
       </c>
       <c r="I242" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J242" t="s">
         <v>0</v>
@@ -23379,7 +23373,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J243" t="s">
         <v>0</v>
@@ -23447,7 +23441,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J244" t="s">
         <v>0</v>
@@ -23515,7 +23509,7 @@
         <v>3</v>
       </c>
       <c r="I245" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J245" t="s">
         <v>0</v>
@@ -23584,7 +23578,7 @@
         <v>3</v>
       </c>
       <c r="I246" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J246" t="s">
         <v>0</v>
@@ -23652,7 +23646,7 @@
         <v>3</v>
       </c>
       <c r="I247" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J247" t="s">
         <v>0</v>
@@ -23705,7 +23699,7 @@
         <v>92</v>
       </c>
       <c r="D248" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E248">
         <v>1995</v>
@@ -23720,7 +23714,7 @@
         <v>3</v>
       </c>
       <c r="I248" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J248" t="s">
         <v>0</v>
@@ -23789,7 +23783,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J249" t="s">
         <v>0</v>
@@ -23857,7 +23851,7 @@
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J250" t="s">
         <v>0</v>
@@ -23925,7 +23919,7 @@
         <v>3</v>
       </c>
       <c r="I251" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J251" t="s">
         <v>0</v>
@@ -23978,7 +23972,7 @@
         <v>92</v>
       </c>
       <c r="D252" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E252">
         <v>1971</v>
@@ -23993,7 +23987,7 @@
         <v>3</v>
       </c>
       <c r="I252" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J252" t="s">
         <v>0</v>
@@ -24062,7 +24056,7 @@
         <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J253" t="s">
         <v>0</v>
@@ -24130,7 +24124,7 @@
         <v>3</v>
       </c>
       <c r="I254" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J254" t="s">
         <v>0</v>
@@ -24198,7 +24192,7 @@
         <v>3</v>
       </c>
       <c r="I255" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J255" t="s">
         <v>1</v>
@@ -24266,7 +24260,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J256" t="s">
         <v>1</v>
@@ -24334,7 +24328,7 @@
         <v>3</v>
       </c>
       <c r="I257" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J257" t="s">
         <v>1</v>
@@ -24402,7 +24396,7 @@
         <v>3</v>
       </c>
       <c r="I258" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J258" t="s">
         <v>1</v>
@@ -24455,7 +24449,7 @@
         <v>81</v>
       </c>
       <c r="D259" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E259">
         <v>2005</v>
@@ -24470,7 +24464,7 @@
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J259" t="s">
         <v>1</v>
@@ -24538,7 +24532,7 @@
         <v>3</v>
       </c>
       <c r="I260" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J260" t="s">
         <v>1</v>
@@ -24606,7 +24600,7 @@
         <v>3</v>
       </c>
       <c r="I261" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J261" t="s">
         <v>1</v>
@@ -24674,7 +24668,7 @@
         <v>3</v>
       </c>
       <c r="I262" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J262" t="s">
         <v>1</v>
@@ -24743,7 +24737,7 @@
         <v>3</v>
       </c>
       <c r="I263" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J263" t="s">
         <v>1</v>
@@ -24811,7 +24805,7 @@
         <v>3</v>
       </c>
       <c r="I264" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J264" t="s">
         <v>1</v>
@@ -24879,7 +24873,7 @@
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J265" t="s">
         <v>1</v>
@@ -24947,7 +24941,7 @@
         <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J266" t="s">
         <v>1</v>
@@ -25015,7 +25009,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J267" t="s">
         <v>1</v>
@@ -25083,7 +25077,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J268" t="s">
         <v>1</v>
@@ -25151,7 +25145,7 @@
         <v>3</v>
       </c>
       <c r="I269" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J269" t="s">
         <v>1</v>
@@ -25219,7 +25213,7 @@
         <v>3</v>
       </c>
       <c r="I270" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J270" t="s">
         <v>1</v>
@@ -25228,7 +25222,7 @@
         <v>1250</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="N270" t="s">
         <v>1251</v>
@@ -25287,7 +25281,7 @@
         <v>3</v>
       </c>
       <c r="I271" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J271" t="s">
         <v>0</v>
@@ -25355,7 +25349,7 @@
         <v>12</v>
       </c>
       <c r="I272" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J272" t="s">
         <v>0</v>
@@ -25424,7 +25418,7 @@
         <v>3</v>
       </c>
       <c r="I273" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J273" t="s">
         <v>1</v>
@@ -25477,7 +25471,7 @@
         <v>81</v>
       </c>
       <c r="D274" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E274">
         <v>2007</v>
@@ -25492,7 +25486,7 @@
         <v>3</v>
       </c>
       <c r="I274" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J274" t="s">
         <v>0</v>
@@ -25560,7 +25554,7 @@
         <v>3</v>
       </c>
       <c r="I275" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J275" t="s">
         <v>1</v>
@@ -25628,7 +25622,7 @@
         <v>12</v>
       </c>
       <c r="I276" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J276" t="s">
         <v>1</v>
@@ -25696,7 +25690,7 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J277" t="s">
         <v>0</v>
@@ -25765,7 +25759,7 @@
         <v>12</v>
       </c>
       <c r="I278" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J278" t="s">
         <v>0</v>
@@ -25833,7 +25827,7 @@
         <v>3</v>
       </c>
       <c r="I279" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J279" t="s">
         <v>1</v>
@@ -25901,7 +25895,7 @@
         <v>3</v>
       </c>
       <c r="I280" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J280" t="s">
         <v>1</v>
@@ -25969,7 +25963,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J281" t="s">
         <v>1</v>
@@ -26037,7 +26031,7 @@
         <v>3</v>
       </c>
       <c r="I282" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J282" t="s">
         <v>1</v>
@@ -26105,7 +26099,7 @@
         <v>3</v>
       </c>
       <c r="I283" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J283" t="s">
         <v>1</v>
@@ -26174,7 +26168,7 @@
         <v>3</v>
       </c>
       <c r="I284" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J284" t="s">
         <v>0</v>
@@ -26242,7 +26236,7 @@
         <v>3</v>
       </c>
       <c r="I285" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J285" t="s">
         <v>1</v>
@@ -26517,7 +26511,7 @@
         <v>3</v>
       </c>
       <c r="I289" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J289" t="s">
         <v>1</v>
@@ -26583,10 +26577,10 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="I290" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J290" t="s">
         <v>0</v>
@@ -26655,7 +26649,7 @@
         <v>3</v>
       </c>
       <c r="I291" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J291" t="s">
         <v>1</v>
@@ -26861,7 +26855,7 @@
         <v>12</v>
       </c>
       <c r="I294" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J294" t="s">
         <v>1</v>
@@ -26929,7 +26923,7 @@
         <v>3</v>
       </c>
       <c r="I295" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J295" t="s">
         <v>1</v>
@@ -26997,7 +26991,7 @@
         <v>3</v>
       </c>
       <c r="I296" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J296" t="s">
         <v>1</v>
@@ -27065,7 +27059,7 @@
         <v>3</v>
       </c>
       <c r="I297" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J297" t="s">
         <v>1</v>
@@ -27133,7 +27127,7 @@
         <v>3</v>
       </c>
       <c r="I298" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J298" t="s">
         <v>1</v>
@@ -27254,7 +27248,7 @@
         <v>81</v>
       </c>
       <c r="D300" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E300">
         <v>1992</v>
@@ -27405,7 +27399,7 @@
         <v>3</v>
       </c>
       <c r="I302" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J302" t="s">
         <v>1</v>
@@ -27473,7 +27467,7 @@
         <v>3</v>
       </c>
       <c r="I303" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J303" t="s">
         <v>1</v>
@@ -27541,7 +27535,7 @@
         <v>3</v>
       </c>
       <c r="I304" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J304" t="s">
         <v>1</v>
@@ -27609,7 +27603,7 @@
         <v>3</v>
       </c>
       <c r="I305" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J305" t="s">
         <v>1</v>
@@ -27677,7 +27671,7 @@
         <v>3</v>
       </c>
       <c r="I306" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J306" t="s">
         <v>0</v>
@@ -27745,7 +27739,7 @@
         <v>3</v>
       </c>
       <c r="I307" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J307" t="s">
         <v>1</v>
@@ -27813,7 +27807,7 @@
         <v>3</v>
       </c>
       <c r="I308" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J308" t="s">
         <v>1</v>
@@ -27881,7 +27875,7 @@
         <v>3</v>
       </c>
       <c r="I309" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J309" t="s">
         <v>1</v>
@@ -27949,7 +27943,7 @@
         <v>18</v>
       </c>
       <c r="I310" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J310" t="s">
         <v>1</v>
@@ -28003,7 +27997,7 @@
         <v>81</v>
       </c>
       <c r="D311" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E311">
         <v>1999</v>
@@ -28018,7 +28012,7 @@
         <v>12</v>
       </c>
       <c r="I311" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J311" t="s">
         <v>0</v>
@@ -28086,7 +28080,7 @@
         <v>12</v>
       </c>
       <c r="I312" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J312" t="s">
         <v>0</v>
@@ -28155,7 +28149,7 @@
         <v>3</v>
       </c>
       <c r="I313" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J313" t="s">
         <v>0</v>
@@ -28208,7 +28202,7 @@
         <v>81</v>
       </c>
       <c r="D314" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E314">
         <v>1994</v>
@@ -28223,7 +28217,7 @@
         <v>3</v>
       </c>
       <c r="I314" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J314" t="s">
         <v>1</v>
@@ -28276,7 +28270,7 @@
         <v>81</v>
       </c>
       <c r="D315" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E315">
         <v>2006</v>
@@ -28291,7 +28285,7 @@
         <v>25</v>
       </c>
       <c r="I315" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J315" t="s">
         <v>0</v>
@@ -28356,10 +28350,10 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I316" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J316" t="s">
         <v>0</v>
@@ -28427,7 +28421,7 @@
         <v>12</v>
       </c>
       <c r="I317" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J317" t="s">
         <v>1</v>
@@ -28495,7 +28489,7 @@
         <v>3</v>
       </c>
       <c r="I318" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J318" t="s">
         <v>1</v>
@@ -28563,7 +28557,7 @@
         <v>3</v>
       </c>
       <c r="I319" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J319" t="s">
         <v>1</v>
@@ -28631,7 +28625,7 @@
         <v>3</v>
       </c>
       <c r="I320" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J320" t="s">
         <v>0</v>
@@ -28699,7 +28693,7 @@
         <v>3</v>
       </c>
       <c r="I321" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J321" t="s">
         <v>1</v>
@@ -28768,7 +28762,7 @@
         <v>3</v>
       </c>
       <c r="I322" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J322" t="s">
         <v>1</v>
@@ -28836,7 +28830,7 @@
         <v>3</v>
       </c>
       <c r="I323" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J323" t="s">
         <v>1</v>
@@ -28904,7 +28898,7 @@
         <v>3</v>
       </c>
       <c r="I324" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J324" t="s">
         <v>1</v>
@@ -28957,7 +28951,7 @@
         <v>81</v>
       </c>
       <c r="D325" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E325">
         <v>2006</v>
@@ -28972,7 +28966,7 @@
         <v>3</v>
       </c>
       <c r="I325" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J325" t="s">
         <v>0</v>
@@ -29025,7 +29019,7 @@
         <v>81</v>
       </c>
       <c r="D326" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E326">
         <v>2000</v>
@@ -29040,7 +29034,7 @@
         <v>12</v>
       </c>
       <c r="I326" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J326" t="s">
         <v>0</v>
@@ -29105,10 +29099,10 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I327" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J327" t="s">
         <v>1</v>
@@ -29173,10 +29167,10 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I328" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J328" t="s">
         <v>0</v>
@@ -29229,7 +29223,7 @@
         <v>92</v>
       </c>
       <c r="D329" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E329">
         <v>1987</v>
@@ -29244,7 +29238,7 @@
         <v>3</v>
       </c>
       <c r="I329" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J329" t="s">
         <v>1</v>
@@ -29381,7 +29375,7 @@
         <v>3</v>
       </c>
       <c r="I331" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J331" t="s">
         <v>0</v>
@@ -29446,10 +29440,10 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="I332" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J332" t="s">
         <v>1</v>
@@ -29586,7 +29580,7 @@
         <v>12</v>
       </c>
       <c r="I334" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J334" t="s">
         <v>1</v>
@@ -29655,7 +29649,7 @@
         <v>3</v>
       </c>
       <c r="I335" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J335" t="s">
         <v>1</v>
@@ -29925,10 +29919,10 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="I339" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J339" t="s">
         <v>0</v>
@@ -29993,10 +29987,10 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I340" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J340" t="s">
         <v>0</v>
@@ -30061,10 +30055,10 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="I341" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J341" t="s">
         <v>0</v>
@@ -30133,7 +30127,7 @@
         <v>12</v>
       </c>
       <c r="I342" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J342" t="s">
         <v>1</v>
@@ -30201,7 +30195,7 @@
         <v>12</v>
       </c>
       <c r="I343" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J343" t="s">
         <v>0</v>
@@ -30269,7 +30263,7 @@
         <v>3</v>
       </c>
       <c r="I344" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J344" t="s">
         <v>1</v>
@@ -30612,7 +30606,7 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J349" t="s">
         <v>1</v>
@@ -30681,7 +30675,7 @@
         <v>3</v>
       </c>
       <c r="I350" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J350" t="s">
         <v>1</v>
@@ -30749,7 +30743,7 @@
         <v>3</v>
       </c>
       <c r="I351" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J351" t="s">
         <v>1</v>
@@ -30817,7 +30811,7 @@
         <v>3</v>
       </c>
       <c r="I352" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J352" t="s">
         <v>1</v>
@@ -30886,7 +30880,7 @@
         <v>3</v>
       </c>
       <c r="I353" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J353" t="s">
         <v>1</v>
@@ -30954,7 +30948,7 @@
         <v>3</v>
       </c>
       <c r="I354" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J354" t="s">
         <v>1</v>
@@ -31022,7 +31016,7 @@
         <v>3</v>
       </c>
       <c r="I355" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J355" t="s">
         <v>0</v>
@@ -31090,7 +31084,7 @@
         <v>3</v>
       </c>
       <c r="I356" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J356" t="s">
         <v>1</v>
@@ -31158,7 +31152,7 @@
         <v>3</v>
       </c>
       <c r="I357" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J357" t="s">
         <v>1</v>
@@ -31226,7 +31220,7 @@
         <v>12</v>
       </c>
       <c r="I358" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J358" t="s">
         <v>0</v>
@@ -31294,7 +31288,7 @@
         <v>3</v>
       </c>
       <c r="I359" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J359" t="s">
         <v>1</v>
@@ -31347,7 +31341,7 @@
         <v>92</v>
       </c>
       <c r="D360" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E360">
         <v>1955</v>
@@ -31362,7 +31356,7 @@
         <v>12</v>
       </c>
       <c r="I360" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J360" t="s">
         <v>0</v>
@@ -31431,7 +31425,7 @@
         <v>3</v>
       </c>
       <c r="I361" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J361" t="s">
         <v>0</v>
@@ -31499,7 +31493,7 @@
         <v>3</v>
       </c>
       <c r="I362" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J362" t="s">
         <v>1</v>
@@ -31564,10 +31558,10 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="I363" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J363" t="s">
         <v>1</v>
@@ -31635,7 +31629,7 @@
         <v>12</v>
       </c>
       <c r="I364" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J364" t="s">
         <v>0</v>
@@ -31704,7 +31698,7 @@
         <v>3</v>
       </c>
       <c r="I365" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J365" t="s">
         <v>0</v>
@@ -31841,7 +31835,7 @@
         <v>3</v>
       </c>
       <c r="I367" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J367" t="s">
         <v>1</v>
@@ -31909,7 +31903,7 @@
         <v>3</v>
       </c>
       <c r="I368" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J368" t="s">
         <v>0</v>
@@ -32113,7 +32107,7 @@
         <v>3</v>
       </c>
       <c r="I371" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J371" t="s">
         <v>1</v>
@@ -32181,7 +32175,7 @@
         <v>3</v>
       </c>
       <c r="I372" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J372" t="s">
         <v>1</v>
@@ -32249,7 +32243,7 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J373" t="s">
         <v>1</v>
@@ -32317,7 +32311,7 @@
         <v>3</v>
       </c>
       <c r="I374" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J374" t="s">
         <v>1</v>
@@ -32382,10 +32376,10 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="I375" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J375" t="s">
         <v>1</v>
@@ -32453,7 +32447,7 @@
         <v>3</v>
       </c>
       <c r="I376" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J376" t="s">
         <v>1</v>
@@ -32507,7 +32501,7 @@
         <v>124</v>
       </c>
       <c r="D377" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E377">
         <v>1992</v>
@@ -32522,7 +32516,7 @@
         <v>12</v>
       </c>
       <c r="I377" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J377" t="s">
         <v>1</v>
@@ -32558,7 +32552,7 @@
         <v>12</v>
       </c>
       <c r="I378" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J378" t="s">
         <v>0</v>
@@ -32594,7 +32588,7 @@
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J379" t="s">
         <v>1</v>
@@ -32630,7 +32624,7 @@
         <v>3</v>
       </c>
       <c r="I380" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J380" t="s">
         <v>1</v>
@@ -32651,7 +32645,7 @@
         <v>124</v>
       </c>
       <c r="D381" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E381">
         <v>1989</v>
@@ -32666,7 +32660,7 @@
         <v>3</v>
       </c>
       <c r="I381" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J381" t="s">
         <v>0</v>
@@ -32702,7 +32696,7 @@
         <v>12</v>
       </c>
       <c r="I382" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J382" t="s">
         <v>0</v>
@@ -32738,7 +32732,7 @@
         <v>3</v>
       </c>
       <c r="I383" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J383" t="s">
         <v>1</v>
@@ -32774,7 +32768,7 @@
         <v>3</v>
       </c>
       <c r="I384" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J384" t="s">
         <v>1</v>
@@ -32810,7 +32804,7 @@
         <v>3</v>
       </c>
       <c r="I385" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J385" t="s">
         <v>0</v>
@@ -32846,7 +32840,7 @@
         <v>3</v>
       </c>
       <c r="I386" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J386" t="s">
         <v>1</v>
@@ -32882,7 +32876,7 @@
         <v>3</v>
       </c>
       <c r="I387" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J387" t="s">
         <v>1</v>
@@ -32975,7 +32969,7 @@
         <v>124</v>
       </c>
       <c r="D390" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E390">
         <v>1989</v>
@@ -32990,7 +32984,7 @@
         <v>3</v>
       </c>
       <c r="I390" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J390" t="s">
         <v>0</v>
@@ -33011,7 +33005,7 @@
         <v>124</v>
       </c>
       <c r="D391" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E391">
         <v>1992</v>
@@ -33026,7 +33020,7 @@
         <v>12</v>
       </c>
       <c r="I391" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J391" t="s">
         <v>0</v>
@@ -33047,7 +33041,7 @@
         <v>124</v>
       </c>
       <c r="D392" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E392">
         <v>1991</v>
@@ -33062,7 +33056,7 @@
         <v>3</v>
       </c>
       <c r="I392" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J392" t="s">
         <v>0</v>
@@ -33083,7 +33077,7 @@
         <v>124</v>
       </c>
       <c r="D393" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E393">
         <v>1993</v>
@@ -33098,7 +33092,7 @@
         <v>3</v>
       </c>
       <c r="I393" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J393" t="s">
         <v>1</v>
@@ -33119,7 +33113,7 @@
         <v>124</v>
       </c>
       <c r="D394" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E394">
         <v>1992</v>
@@ -33134,7 +33128,7 @@
         <v>3</v>
       </c>
       <c r="I394" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J394" t="s">
         <v>1</v>
@@ -33155,7 +33149,7 @@
         <v>124</v>
       </c>
       <c r="D395" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E395">
         <v>1993</v>
@@ -33170,7 +33164,7 @@
         <v>3</v>
       </c>
       <c r="I395" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J395" t="s">
         <v>1</v>
@@ -33191,7 +33185,7 @@
         <v>124</v>
       </c>
       <c r="D396" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E396">
         <v>1992</v>
@@ -33206,7 +33200,7 @@
         <v>3</v>
       </c>
       <c r="I396" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J396" t="s">
         <v>1</v>
@@ -33227,7 +33221,7 @@
         <v>124</v>
       </c>
       <c r="D397" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E397">
         <v>1988</v>
@@ -33242,7 +33236,7 @@
         <v>3</v>
       </c>
       <c r="I397" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J397" t="s">
         <v>0</v>
@@ -33263,7 +33257,7 @@
         <v>124</v>
       </c>
       <c r="D398" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E398">
         <v>1989</v>
@@ -33278,7 +33272,7 @@
         <v>12</v>
       </c>
       <c r="I398" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J398" t="s">
         <v>0</v>
@@ -33299,7 +33293,7 @@
         <v>124</v>
       </c>
       <c r="D399" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E399">
         <v>1992</v>
@@ -33314,7 +33308,7 @@
         <v>3</v>
       </c>
       <c r="I399" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J399" t="s">
         <v>1</v>
@@ -33335,7 +33329,7 @@
         <v>124</v>
       </c>
       <c r="D400" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E400">
         <v>1992</v>
@@ -33350,7 +33344,7 @@
         <v>149</v>
       </c>
       <c r="I400" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J400" t="s">
         <v>0</v>
@@ -33371,7 +33365,7 @@
         <v>124</v>
       </c>
       <c r="D401" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E401">
         <v>1992</v>
@@ -33386,7 +33380,7 @@
         <v>3</v>
       </c>
       <c r="I401" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J401" t="s">
         <v>1</v>
@@ -33407,7 +33401,7 @@
         <v>124</v>
       </c>
       <c r="D402" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E402">
         <v>1992</v>
@@ -33422,7 +33416,7 @@
         <v>12</v>
       </c>
       <c r="I402" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J402" t="s">
         <v>1</v>
@@ -33443,7 +33437,7 @@
         <v>124</v>
       </c>
       <c r="D403" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E403">
         <v>1992</v>
@@ -33458,7 +33452,7 @@
         <v>3</v>
       </c>
       <c r="I403" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J403" t="s">
         <v>0</v>
@@ -33479,7 +33473,7 @@
         <v>124</v>
       </c>
       <c r="D404" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E404">
         <v>1992</v>
@@ -33494,7 +33488,7 @@
         <v>3</v>
       </c>
       <c r="I404" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J404" t="s">
         <v>0</v>
@@ -33515,7 +33509,7 @@
         <v>124</v>
       </c>
       <c r="D405" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E405">
         <v>1992</v>
@@ -33530,7 +33524,7 @@
         <v>12</v>
       </c>
       <c r="I405" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J405" t="s">
         <v>1</v>
@@ -33551,7 +33545,7 @@
         <v>124</v>
       </c>
       <c r="D406" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E406">
         <v>1992</v>
@@ -33566,7 +33560,7 @@
         <v>3</v>
       </c>
       <c r="I406" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J406" t="s">
         <v>1</v>
@@ -33587,7 +33581,7 @@
         <v>124</v>
       </c>
       <c r="D407" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E407">
         <v>1990</v>
@@ -33602,7 +33596,7 @@
         <v>3</v>
       </c>
       <c r="I407" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J407" t="s">
         <v>1</v>
@@ -33623,7 +33617,7 @@
         <v>124</v>
       </c>
       <c r="D408" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E408">
         <v>1992</v>
@@ -33638,7 +33632,7 @@
         <v>3</v>
       </c>
       <c r="I408" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J408" t="s">
         <v>0</v>
@@ -33659,7 +33653,7 @@
         <v>124</v>
       </c>
       <c r="D409" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E409">
         <v>1992</v>
@@ -33674,7 +33668,7 @@
         <v>3</v>
       </c>
       <c r="I409" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J409" t="s">
         <v>1</v>
@@ -33695,7 +33689,7 @@
         <v>124</v>
       </c>
       <c r="D410" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E410">
         <v>1992</v>
@@ -33710,7 +33704,7 @@
         <v>3</v>
       </c>
       <c r="I410" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J410" t="s">
         <v>1</v>
@@ -33731,7 +33725,7 @@
         <v>124</v>
       </c>
       <c r="D411" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E411">
         <v>1993</v>
@@ -33746,7 +33740,7 @@
         <v>3</v>
       </c>
       <c r="I411" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J411" t="s">
         <v>1</v>
@@ -33766,6 +33760,9 @@
       <c r="C412" t="s">
         <v>121</v>
       </c>
+      <c r="D412" t="s">
+        <v>793</v>
+      </c>
       <c r="E412">
         <v>1915</v>
       </c>
@@ -33779,7 +33776,7 @@
         <v>123</v>
       </c>
       <c r="I412" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J412" t="s">
         <v>1</v>
@@ -33812,7 +33809,7 @@
         <v>2116</v>
       </c>
       <c r="I413" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="J413" t="s">
         <v>0</v>
@@ -33829,6 +33826,9 @@
       <c r="C414" t="s">
         <v>122</v>
       </c>
+      <c r="D414" t="s">
+        <v>793</v>
+      </c>
       <c r="E414">
         <v>1904</v>
       </c>
@@ -33842,7 +33842,7 @@
         <v>3</v>
       </c>
       <c r="I414" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J414" t="s">
         <v>1</v>
@@ -33857,13 +33857,13 @@
         <v>119</v>
       </c>
       <c r="C415" t="s">
-        <v>2117</v>
+        <v>124</v>
       </c>
       <c r="D415" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="E415">
-        <v>1707</v>
+        <v>1993</v>
       </c>
       <c r="F415" t="s">
         <v>93</v>
@@ -33872,15 +33872,18 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I415" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J415" t="s">
         <v>1</v>
       </c>
       <c r="M415" s="5"/>
+      <c r="T415" t="s">
+        <v>2134</v>
+      </c>
     </row>
     <row r="416" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -33893,10 +33896,10 @@
         <v>124</v>
       </c>
       <c r="D416" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E416">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="F416" t="s">
         <v>93</v>
@@ -33908,10 +33911,10 @@
         <v>3</v>
       </c>
       <c r="I416" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J416" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M416" s="5"/>
       <c r="T416" t="s">
@@ -33929,10 +33932,10 @@
         <v>124</v>
       </c>
       <c r="D417" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E417">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="F417" t="s">
         <v>93</v>
@@ -33944,10 +33947,10 @@
         <v>3</v>
       </c>
       <c r="I417" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J417" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M417" s="5"/>
       <c r="T417" t="s">
@@ -33959,13 +33962,13 @@
         <v>125</v>
       </c>
       <c r="B418" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C418" t="s">
-        <v>124</v>
+        <v>2137</v>
       </c>
       <c r="D418" t="s">
-        <v>2134</v>
+        <v>1760</v>
       </c>
       <c r="E418">
         <v>1990</v>
@@ -33974,21 +33977,18 @@
         <v>93</v>
       </c>
       <c r="G418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H418" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I418" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M418" s="5"/>
-      <c r="T418" t="s">
-        <v>2137</v>
-      </c>
     </row>
     <row r="419" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
@@ -33998,13 +33998,13 @@
         <v>117</v>
       </c>
       <c r="C419" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D419" t="s">
         <v>1760</v>
       </c>
       <c r="E419">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="F419" t="s">
         <v>93</v>
@@ -34013,13 +34013,13 @@
         <v>0</v>
       </c>
       <c r="H419" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I419" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J419" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M419" s="5"/>
     </row>
@@ -34031,25 +34031,25 @@
         <v>117</v>
       </c>
       <c r="C420" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D420" t="s">
         <v>1760</v>
       </c>
       <c r="E420">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="F420" t="s">
         <v>93</v>
       </c>
       <c r="G420" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>3</v>
       </c>
       <c r="I420" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J420" t="s">
         <v>1</v>
@@ -34064,28 +34064,28 @@
         <v>117</v>
       </c>
       <c r="C421" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D421" t="s">
         <v>1760</v>
       </c>
       <c r="E421">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F421" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="G421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H421" t="s">
         <v>3</v>
       </c>
       <c r="I421" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M421" s="5"/>
     </row>
@@ -34097,28 +34097,28 @@
         <v>117</v>
       </c>
       <c r="C422" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D422" t="s">
         <v>1760</v>
       </c>
       <c r="E422">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="F422" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="G422" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>3</v>
       </c>
       <c r="I422" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J422" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M422" s="5"/>
     </row>
@@ -34130,63 +34130,30 @@
         <v>117</v>
       </c>
       <c r="C423" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D423" t="s">
         <v>1760</v>
       </c>
       <c r="E423">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="F423" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="G423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I423" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J423" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M423" s="5"/>
-    </row>
-    <row r="424" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>125</v>
-      </c>
-      <c r="B424" t="s">
-        <v>117</v>
-      </c>
-      <c r="C424" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E424">
-        <v>1990</v>
-      </c>
-      <c r="F424" t="s">
-        <v>2</v>
-      </c>
-      <c r="G424" t="s">
-        <v>0</v>
-      </c>
-      <c r="H424" t="s">
-        <v>12</v>
-      </c>
-      <c r="I424" t="s">
-        <v>2141</v>
-      </c>
-      <c r="J424" t="s">
-        <v>0</v>
-      </c>
-      <c r="M424" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB376"/>

--- a/data/excel/Historical_collections_fool.xlsx
+++ b/data/excel/Historical_collections_fool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ba4es16\Work Folders\Documents\Aufsätze\Leuven 2022\R_project_verbs_of_deceiving\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\daten.uni-bamberg.de\Aufgabenbezogen_M\eng-ling\Deceive-type verbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="2156">
   <si>
     <t>y</t>
   </si>
@@ -6447,6 +6447,54 @@
   </si>
   <si>
     <t>verbal</t>
+  </si>
+  <si>
+    <t>So that's very, very important because it can be very misleading and you could be</t>
+  </si>
+  <si>
+    <t>that there's nothing wrong with the baby, then there'll also be swelling of the hands, feet and the eyelids might swell up, the medical word for that is oedema which you may well see in books, which means swelling [pause] occasionally the overlying skin is</t>
+  </si>
+  <si>
+    <t>It was also discovered that egg production could be boosted by leaving lights on in the houses all night to</t>
+  </si>
+  <si>
+    <t>fool the hens into thinking</t>
+  </si>
+  <si>
+    <t>that it was still daylight.</t>
+  </si>
+  <si>
+    <t>A lot of people (.) a lot of new parents yes (.) they are</t>
+  </si>
+  <si>
+    <t>that they must listen to their children and respect their</t>
+  </si>
+  <si>
+    <t>ah (.) he 's interested in slight of hand S0173: yeah (.) if he can</t>
+  </si>
+  <si>
+    <t>fool people into you know believing</t>
+  </si>
+  <si>
+    <t>a coin has been passed to another</t>
+  </si>
+  <si>
+    <t>and like redeploy like different areas to</t>
+  </si>
+  <si>
+    <t>fool one person into thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that it 's round S0544: &gt;&gt;worth worth </t>
+  </si>
+  <si>
+    <t>BNC2014</t>
+  </si>
+  <si>
+    <t>BNC2015</t>
+  </si>
+  <si>
+    <t>BNC2016</t>
   </si>
 </sst>
 </file>
@@ -6791,12 +6839,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB423"/>
+  <dimension ref="A1:AB428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A415" sqref="A415:XFD415"/>
+      <selection pane="bottomLeft" activeCell="K426" sqref="K426:N428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34155,6 +34203,211 @@
       </c>
       <c r="M423" s="5"/>
     </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E424" s="5">
+        <v>1993</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L424" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="M424" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="N424" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E425" s="5">
+        <v>1994</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L425" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M425" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="N425" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E426" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H426" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L426" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="M426" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="N426" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E427" s="5">
+        <v>2012</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L427" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="N427" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E428" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H428" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L428" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M428" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB376"/>
   <sortState ref="A2:AB405">
